--- a/SchedulingData/dynamic16/pso/scheduling2_7.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>242.82</v>
+        <v>245.78</v>
       </c>
       <c r="D2" t="n">
-        <v>307.18</v>
+        <v>312.98</v>
       </c>
       <c r="E2" t="n">
-        <v>12.952</v>
+        <v>10.032</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>203.54</v>
+        <v>215.2</v>
       </c>
       <c r="D3" t="n">
-        <v>257.64</v>
+        <v>293</v>
       </c>
       <c r="E3" t="n">
-        <v>13.776</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>222.04</v>
+        <v>239.94</v>
       </c>
       <c r="D4" t="n">
-        <v>303.06</v>
+        <v>315.5</v>
       </c>
       <c r="E4" t="n">
-        <v>9.864000000000001</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>257.64</v>
+        <v>293</v>
       </c>
       <c r="D5" t="n">
-        <v>338.66</v>
+        <v>359</v>
       </c>
       <c r="E5" t="n">
-        <v>9.304</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>307.18</v>
+        <v>233.26</v>
       </c>
       <c r="D6" t="n">
-        <v>361.98</v>
+        <v>292.62</v>
       </c>
       <c r="E6" t="n">
-        <v>10.092</v>
+        <v>14.248</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>303.06</v>
+        <v>312.98</v>
       </c>
       <c r="D7" t="n">
-        <v>368.04</v>
+        <v>390.08</v>
       </c>
       <c r="E7" t="n">
-        <v>6.476</v>
+        <v>6.392</v>
       </c>
     </row>
     <row r="8">
@@ -580,79 +580,79 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>361.98</v>
+        <v>232.66</v>
       </c>
       <c r="D8" t="n">
-        <v>427.88</v>
+        <v>305.34</v>
       </c>
       <c r="E8" t="n">
-        <v>5.612</v>
+        <v>12.096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>241.6</v>
+        <v>315.5</v>
       </c>
       <c r="D9" t="n">
-        <v>322.2</v>
+        <v>379.86</v>
       </c>
       <c r="E9" t="n">
-        <v>10.44</v>
+        <v>7.284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>218.68</v>
+        <v>292.62</v>
       </c>
       <c r="D10" t="n">
-        <v>280.08</v>
+        <v>359.48</v>
       </c>
       <c r="E10" t="n">
-        <v>12.192</v>
+        <v>10.192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>322.2</v>
+        <v>359</v>
       </c>
       <c r="D11" t="n">
-        <v>382.28</v>
+        <v>432.66</v>
       </c>
       <c r="E11" t="n">
-        <v>6.552</v>
+        <v>2.104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,146 +660,146 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>338.66</v>
+        <v>379.86</v>
       </c>
       <c r="D12" t="n">
-        <v>390.74</v>
+        <v>431.74</v>
       </c>
       <c r="E12" t="n">
-        <v>6.236</v>
+        <v>4.216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>280.08</v>
+        <v>390.08</v>
       </c>
       <c r="D13" t="n">
-        <v>347.18</v>
+        <v>428.6</v>
       </c>
       <c r="E13" t="n">
-        <v>9.552</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>427.88</v>
+        <v>431.74</v>
       </c>
       <c r="D14" t="n">
-        <v>460.38</v>
+        <v>477.6</v>
       </c>
       <c r="E14" t="n">
-        <v>3.492</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>347.18</v>
+        <v>477.6</v>
       </c>
       <c r="D15" t="n">
-        <v>405.64</v>
+        <v>557.88</v>
       </c>
       <c r="E15" t="n">
-        <v>6.796</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>405.64</v>
+        <v>305.34</v>
       </c>
       <c r="D16" t="n">
-        <v>473.94</v>
+        <v>346.74</v>
       </c>
       <c r="E16" t="n">
-        <v>3.556</v>
+        <v>9.576000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>390.74</v>
+        <v>359.48</v>
       </c>
       <c r="D17" t="n">
-        <v>436.6</v>
+        <v>411.18</v>
       </c>
       <c r="E17" t="n">
-        <v>2.78</v>
+        <v>6.652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>436.6</v>
+        <v>225.06</v>
       </c>
       <c r="D18" t="n">
-        <v>473.1</v>
+        <v>285.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.26</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>473.1</v>
+        <v>346.74</v>
       </c>
       <c r="D19" t="n">
-        <v>544.48</v>
+        <v>402.76</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>5.104</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>368.04</v>
+        <v>428.6</v>
       </c>
       <c r="D20" t="n">
-        <v>427.74</v>
+        <v>499.24</v>
       </c>
       <c r="E20" t="n">
-        <v>3.116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>382.28</v>
+        <v>499.24</v>
       </c>
       <c r="D21" t="n">
-        <v>426.3</v>
+        <v>545.04</v>
       </c>
       <c r="E21" t="n">
-        <v>3.78</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>426.3</v>
+        <v>411.18</v>
       </c>
       <c r="D22" t="n">
-        <v>493.8</v>
+        <v>464.92</v>
       </c>
       <c r="E22" t="n">
-        <v>0.14</v>
+        <v>2.908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>493.8</v>
+        <v>402.76</v>
       </c>
       <c r="D23" t="n">
-        <v>565.52</v>
+        <v>455.96</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="24">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>460.38</v>
+        <v>455.96</v>
       </c>
       <c r="D24" t="n">
-        <v>544.9</v>
+        <v>522.11</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -903,188 +903,188 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>544.9</v>
+        <v>522.11</v>
       </c>
       <c r="D25" t="n">
-        <v>602</v>
+        <v>574.8099999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>26.46</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>427.74</v>
+        <v>574.8099999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>518.01</v>
+        <v>617.41</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>25.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>518.01</v>
+        <v>432.66</v>
       </c>
       <c r="D27" t="n">
-        <v>577.89</v>
+        <v>505.35</v>
       </c>
       <c r="E27" t="n">
-        <v>26.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>565.52</v>
+        <v>505.35</v>
       </c>
       <c r="D28" t="n">
-        <v>623.52</v>
+        <v>575.25</v>
       </c>
       <c r="E28" t="n">
-        <v>27.36</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>602</v>
+        <v>575.25</v>
       </c>
       <c r="D29" t="n">
-        <v>645.4</v>
+        <v>622.65</v>
       </c>
       <c r="E29" t="n">
-        <v>23.74</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>237.98</v>
+        <v>617.41</v>
       </c>
       <c r="D30" t="n">
-        <v>312.28</v>
+        <v>675.87</v>
       </c>
       <c r="E30" t="n">
-        <v>14.932</v>
+        <v>22.484</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>645.4</v>
+        <v>464.92</v>
       </c>
       <c r="D31" t="n">
-        <v>707.64</v>
+        <v>545.9</v>
       </c>
       <c r="E31" t="n">
-        <v>20.616</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>312.28</v>
+        <v>545.9</v>
       </c>
       <c r="D32" t="n">
-        <v>367.58</v>
+        <v>612.8</v>
       </c>
       <c r="E32" t="n">
-        <v>11.032</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>577.89</v>
+        <v>622.65</v>
       </c>
       <c r="D33" t="n">
-        <v>633.53</v>
+        <v>688.6900000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>23.228</v>
+        <v>18.556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>473.94</v>
+        <v>545.04</v>
       </c>
       <c r="D34" t="n">
-        <v>540.54</v>
+        <v>626.08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.016</v>
+        <v>23.596</v>
       </c>
     </row>
     <row r="35">
@@ -1093,41 +1093,41 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>540.54</v>
+        <v>285.6</v>
       </c>
       <c r="D35" t="n">
-        <v>632.01</v>
+        <v>347.46</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>10.524</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>623.52</v>
+        <v>626.08</v>
       </c>
       <c r="D36" t="n">
-        <v>687.1799999999999</v>
+        <v>668.6799999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>23.104</v>
+        <v>20.956</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1135,181 +1135,181 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>707.64</v>
+        <v>557.88</v>
       </c>
       <c r="D37" t="n">
-        <v>773.72</v>
+        <v>604.86</v>
       </c>
       <c r="E37" t="n">
-        <v>18.108</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>544.48</v>
+        <v>347.46</v>
       </c>
       <c r="D38" t="n">
-        <v>612.24</v>
+        <v>429.84</v>
       </c>
       <c r="E38" t="n">
-        <v>26.864</v>
+        <v>5.876</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>632.01</v>
+        <v>612.8</v>
       </c>
       <c r="D39" t="n">
-        <v>727.65</v>
+        <v>662.8</v>
       </c>
       <c r="E39" t="n">
-        <v>25.576</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>367.58</v>
+        <v>662.8</v>
       </c>
       <c r="D40" t="n">
-        <v>417.76</v>
+        <v>704.46</v>
       </c>
       <c r="E40" t="n">
-        <v>7.144</v>
+        <v>20.064</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>417.76</v>
+        <v>668.6799999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>486.98</v>
+        <v>755.6799999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>2.832</v>
+        <v>17.356</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>687.1799999999999</v>
+        <v>675.87</v>
       </c>
       <c r="D42" t="n">
-        <v>759.48</v>
+        <v>733.71</v>
       </c>
       <c r="E42" t="n">
-        <v>19.504</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>633.53</v>
+        <v>688.6900000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>693.9299999999999</v>
+        <v>731.35</v>
       </c>
       <c r="E43" t="n">
-        <v>18.808</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>612.24</v>
+        <v>604.86</v>
       </c>
       <c r="D44" t="n">
-        <v>668.64</v>
+        <v>654.38</v>
       </c>
       <c r="E44" t="n">
-        <v>22.844</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>668.64</v>
+        <v>429.84</v>
       </c>
       <c r="D45" t="n">
-        <v>737.28</v>
+        <v>499.32</v>
       </c>
       <c r="E45" t="n">
-        <v>19.1</v>
+        <v>2.068</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>486.98</v>
+        <v>499.32</v>
       </c>
       <c r="D46" t="n">
-        <v>568.22</v>
+        <v>576.98</v>
       </c>
       <c r="E46" t="n">
         <v>30</v>
@@ -1317,40 +1317,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>568.22</v>
+        <v>576.98</v>
       </c>
       <c r="D47" t="n">
-        <v>611.22</v>
+        <v>650.1</v>
       </c>
       <c r="E47" t="n">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>4</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pond9</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>693.9299999999999</v>
-      </c>
-      <c r="D48" t="n">
-        <v>754.03</v>
-      </c>
-      <c r="E48" t="n">
-        <v>14.908</v>
+        <v>26.348</v>
       </c>
     </row>
   </sheetData>
